--- a/Code/Results/Cases/Case_3_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.284839022996493</v>
+        <v>2.630176381257741</v>
       </c>
       <c r="C2">
-        <v>0.8161312726944345</v>
+        <v>0.3335846736778763</v>
       </c>
       <c r="D2">
-        <v>0.01437149562842777</v>
+        <v>0.01560609928320034</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.199675324920548</v>
+        <v>3.529065049541259</v>
       </c>
       <c r="G2">
-        <v>0.0008266025196926266</v>
+        <v>0.002598343087747254</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.159200952960958</v>
+        <v>2.060660554140718</v>
       </c>
       <c r="J2">
-        <v>0.05948671240496672</v>
+        <v>0.1159874134268719</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2168099828596226</v>
+        <v>0.397536397468464</v>
       </c>
       <c r="M2">
-        <v>0.5617812666197253</v>
+        <v>0.5697315880403409</v>
       </c>
       <c r="N2">
-        <v>1.211515160780188</v>
+        <v>2.484920273678362</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.878204592806526</v>
+        <v>2.539138205202164</v>
       </c>
       <c r="C3">
-        <v>0.7043607774416216</v>
+        <v>0.3049758128916551</v>
       </c>
       <c r="D3">
-        <v>0.0122008787832435</v>
+        <v>0.01485929724968571</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.071779361542809</v>
+        <v>3.519617957760076</v>
       </c>
       <c r="G3">
-        <v>0.0008348739581775829</v>
+        <v>0.002603648974876902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.11500126154607</v>
+        <v>2.062416726719675</v>
       </c>
       <c r="J3">
-        <v>0.0588841995288778</v>
+        <v>0.115771194462079</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2009184878948176</v>
+        <v>0.3957501985477094</v>
       </c>
       <c r="M3">
-        <v>0.497337621483517</v>
+        <v>0.5564649643287751</v>
       </c>
       <c r="N3">
-        <v>1.270500240548323</v>
+        <v>2.508305539574735</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.632575078658761</v>
+        <v>2.484680832143567</v>
       </c>
       <c r="C4">
-        <v>0.6368214830304737</v>
+        <v>0.2875857144509268</v>
       </c>
       <c r="D4">
-        <v>0.01091938912533053</v>
+        <v>0.01439417328979076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.997615269474508</v>
+        <v>3.51560350650837</v>
       </c>
       <c r="G4">
-        <v>0.0008400981287431004</v>
+        <v>0.002607079826359898</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.090222957369519</v>
+        <v>2.064484588275803</v>
       </c>
       <c r="J4">
-        <v>0.05852169535048191</v>
+        <v>0.1156377673379527</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1914452358275156</v>
+        <v>0.3948137588373868</v>
       </c>
       <c r="M4">
-        <v>0.4584909730047499</v>
+        <v>0.548615748157161</v>
       </c>
       <c r="N4">
-        <v>1.308444155376279</v>
+        <v>2.523430902619801</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.533379416145863</v>
+        <v>2.462850947583945</v>
       </c>
       <c r="C5">
-        <v>0.6095342734075757</v>
+        <v>0.280542859447678</v>
       </c>
       <c r="D5">
-        <v>0.01040804228496484</v>
+        <v>0.01420292241167687</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.968407347867625</v>
+        <v>3.514415952232113</v>
       </c>
       <c r="G5">
-        <v>0.0008422650029957845</v>
+        <v>0.002608521577942948</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.08067818379012</v>
+        <v>2.065575679718435</v>
       </c>
       <c r="J5">
-        <v>0.05837560899567329</v>
+        <v>0.1155832247357793</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.187651042808298</v>
+        <v>0.3944725066374275</v>
       </c>
       <c r="M5">
-        <v>0.4428232892472721</v>
+        <v>0.5454916930575635</v>
       </c>
       <c r="N5">
-        <v>1.324325471574298</v>
+        <v>2.529787189233481</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.516959184139637</v>
+        <v>2.459247964681936</v>
       </c>
       <c r="C6">
-        <v>0.6050164279098169</v>
+        <v>0.279376027622277</v>
       </c>
       <c r="D6">
-        <v>0.01032373438044232</v>
+        <v>0.014171060567989</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.963616366161887</v>
+        <v>3.514245818031242</v>
       </c>
       <c r="G6">
-        <v>0.0008426271440012093</v>
+        <v>0.002608763620582774</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.079125517691615</v>
+        <v>2.065771846706973</v>
       </c>
       <c r="J6">
-        <v>0.05835144392214353</v>
+        <v>0.1155741576545708</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1870248750020025</v>
+        <v>0.3944182807143264</v>
       </c>
       <c r="M6">
-        <v>0.440230980101461</v>
+        <v>0.5449774495694371</v>
       </c>
       <c r="N6">
-        <v>1.326987424202542</v>
+        <v>2.530854270732121</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.631233793726324</v>
+        <v>2.484384961573994</v>
       </c>
       <c r="C7">
-        <v>0.6364525723189729</v>
+        <v>0.2874905555109422</v>
       </c>
       <c r="D7">
-        <v>0.01091245145010333</v>
+        <v>0.01439160100324699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.997217358358398</v>
+        <v>3.515585676341814</v>
       </c>
       <c r="G7">
-        <v>0.0008401271963726805</v>
+        <v>0.002607099093158038</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.090092047678588</v>
+        <v>2.064498297829644</v>
       </c>
       <c r="J7">
-        <v>0.05851971884353446</v>
+        <v>0.1156370324475873</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1913938044544707</v>
+        <v>0.3948089931323935</v>
       </c>
       <c r="M7">
-        <v>0.4582790385524618</v>
+        <v>0.5485733141546802</v>
       </c>
       <c r="N7">
-        <v>1.308656659805727</v>
+        <v>2.523515846288994</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.1437183656858</v>
+        <v>2.598487250038602</v>
       </c>
       <c r="C8">
-        <v>0.7773430349243711</v>
+        <v>0.3236835460194811</v>
       </c>
       <c r="D8">
-        <v>0.01361114651068007</v>
+        <v>0.01534993622320968</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.154618919612332</v>
+        <v>3.525436512545738</v>
       </c>
       <c r="G8">
-        <v>0.0008294251951695273</v>
+        <v>0.002600136736434681</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.143445291732597</v>
+        <v>2.061060443515913</v>
       </c>
       <c r="J8">
-        <v>0.05927727317730103</v>
+        <v>0.1159129984274667</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2112683330983387</v>
+        <v>0.3968872737748228</v>
       </c>
       <c r="M8">
-        <v>0.5393993728395117</v>
+        <v>0.5650956989636953</v>
       </c>
       <c r="N8">
-        <v>1.231485181799663</v>
+        <v>2.492824251720265</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.186633665969396</v>
+        <v>2.833699053569944</v>
       </c>
       <c r="C9">
-        <v>1.064164174848202</v>
+        <v>0.3960784024749842</v>
       </c>
       <c r="D9">
-        <v>0.01941223462261732</v>
+        <v>0.01717944709796981</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.502031608434876</v>
+        <v>3.558966121785701</v>
       </c>
       <c r="G9">
-        <v>0.0008095236635209564</v>
+        <v>0.002587849706623624</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.268832454168958</v>
+        <v>2.06219152866737</v>
       </c>
       <c r="J9">
-        <v>0.06083382600525766</v>
+        <v>0.1164489870159855</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2527572115572809</v>
+        <v>0.4022332314723229</v>
       </c>
       <c r="M9">
-        <v>0.7051478249599015</v>
+        <v>0.5998518065938825</v>
       </c>
       <c r="N9">
-        <v>1.094611435625076</v>
+        <v>2.438730654386987</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.985062776702364</v>
+        <v>3.013556516148583</v>
       </c>
       <c r="C10">
-        <v>1.284278458812821</v>
+        <v>0.4501734633243473</v>
       </c>
       <c r="D10">
-        <v>0.0241459132202877</v>
+        <v>0.01849673190222134</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.78727899686271</v>
+        <v>3.592328609776217</v>
       </c>
       <c r="G10">
-        <v>0.0007954569109789385</v>
+        <v>0.002579645918456386</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.376757947856461</v>
+        <v>2.067854345300049</v>
       </c>
       <c r="J10">
-        <v>0.06203981450395446</v>
+        <v>0.1168398234481014</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2851754123161214</v>
+        <v>0.4069345382729068</v>
       </c>
       <c r="M10">
-        <v>0.8324557654954177</v>
+        <v>0.6268309412372517</v>
       </c>
       <c r="N10">
-        <v>1.004033659920616</v>
+        <v>2.402713458065953</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.35759151272805</v>
+        <v>3.096923911820511</v>
       </c>
       <c r="C11">
-        <v>1.387211974015315</v>
+        <v>0.4749887377130335</v>
       </c>
       <c r="D11">
-        <v>0.02644412416194797</v>
+        <v>0.01909092931523304</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.925186095629641</v>
+        <v>3.609415983001043</v>
       </c>
       <c r="G11">
-        <v>0.000789151214712108</v>
+        <v>0.002576090624629944</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.430089488960647</v>
+        <v>2.071487034434725</v>
       </c>
       <c r="J11">
-        <v>0.06260706644775382</v>
+        <v>0.1170170305839093</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3004459403292969</v>
+        <v>0.4092411801863562</v>
       </c>
       <c r="M11">
-        <v>0.8919455727182211</v>
+        <v>0.6394199250781298</v>
       </c>
       <c r="N11">
-        <v>0.9652948483548727</v>
+        <v>2.387139709201357</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.500217685353277</v>
+        <v>3.128716582387824</v>
       </c>
       <c r="C12">
-        <v>1.426665763897745</v>
+        <v>0.484416058560555</v>
       </c>
       <c r="D12">
-        <v>0.02733937064535752</v>
+        <v>0.01931527214817308</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.978734356902464</v>
+        <v>3.616162343462548</v>
       </c>
       <c r="G12">
-        <v>0.0007867743065553882</v>
+        <v>0.002574769577126681</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.4509703652285</v>
+        <v>2.073015143576853</v>
       </c>
       <c r="J12">
-        <v>0.06282504982820214</v>
+        <v>0.1170840530942545</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3063133966130067</v>
+        <v>0.4101387791174176</v>
       </c>
       <c r="M12">
-        <v>0.9147348680452154</v>
+        <v>0.6442325837424079</v>
       </c>
       <c r="N12">
-        <v>0.9510090360277843</v>
+        <v>2.381359169873853</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.469427557937991</v>
+        <v>3.121859525402101</v>
       </c>
       <c r="C13">
-        <v>1.418146305854293</v>
+        <v>0.4823843596180382</v>
       </c>
       <c r="D13">
-        <v>0.02714538069562522</v>
+        <v>0.01926698463035237</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.967140149459311</v>
+        <v>3.614697114148925</v>
       </c>
       <c r="G13">
-        <v>0.0007872857735279779</v>
+        <v>0.002575052966723906</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.44644149556899</v>
+        <v>2.072679247182862</v>
       </c>
       <c r="J13">
-        <v>0.06277795316386481</v>
+        <v>0.1170696222063619</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3050457966987778</v>
+        <v>0.4099443927369464</v>
       </c>
       <c r="M13">
-        <v>0.9098145374928706</v>
+        <v>0.6431940680388948</v>
       </c>
       <c r="N13">
-        <v>0.9540681697309452</v>
+        <v>2.382598907882951</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.369292894678608</v>
+        <v>3.099535037048781</v>
       </c>
       <c r="C14">
-        <v>1.390447893141527</v>
+        <v>0.4757637184750934</v>
       </c>
       <c r="D14">
-        <v>0.02651725048295361</v>
+        <v>0.019109399163586</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.929564019001504</v>
+        <v>3.60996547804092</v>
       </c>
       <c r="G14">
-        <v>0.0007889554615569949</v>
+        <v>0.002575981435334236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.43179316436391</v>
+        <v>2.071609693643069</v>
       </c>
       <c r="J14">
-        <v>0.06262493327591478</v>
+        <v>0.117022546196166</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3009269001913992</v>
+        <v>0.4093145429024219</v>
       </c>
       <c r="M14">
-        <v>0.8938149988006288</v>
+        <v>0.6398149536094024</v>
       </c>
       <c r="N14">
-        <v>0.9641116748692866</v>
+        <v>2.386661795957856</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.30816728395348</v>
+        <v>3.085889730689587</v>
       </c>
       <c r="C15">
-        <v>1.373545985698343</v>
+        <v>0.4717123482544139</v>
       </c>
       <c r="D15">
-        <v>0.02613588656929977</v>
+        <v>0.01901278841098986</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.906725124093271</v>
+        <v>3.607103154185893</v>
       </c>
       <c r="G15">
-        <v>0.0007899795367223295</v>
+        <v>0.00257655343569088</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.422912320518549</v>
+        <v>2.070974436054527</v>
       </c>
       <c r="J15">
-        <v>0.06253163399657247</v>
+        <v>0.1169937001733299</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2984153096609674</v>
+        <v>0.408931882340724</v>
       </c>
       <c r="M15">
-        <v>0.8840500266176505</v>
+        <v>0.6377510729695999</v>
       </c>
       <c r="N15">
-        <v>0.9703145150154953</v>
+        <v>2.389165666150049</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.960922673490529</v>
+        <v>3.008139475550593</v>
       </c>
       <c r="C16">
-        <v>1.27761386274733</v>
+        <v>0.4485559401253454</v>
       </c>
       <c r="D16">
-        <v>0.02399897457001643</v>
+        <v>0.01845780320685009</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.778443144829168</v>
+        <v>3.591250441119712</v>
       </c>
       <c r="G16">
-        <v>0.0007958706742666471</v>
+        <v>0.002579881808233395</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.373364150596657</v>
+        <v>2.067638249230569</v>
       </c>
       <c r="J16">
-        <v>0.06200315915885035</v>
+        <v>0.116828230944229</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2841887719167175</v>
+        <v>0.4067871713535851</v>
       </c>
       <c r="M16">
-        <v>0.8286025968699349</v>
+        <v>0.6260145841663345</v>
       </c>
       <c r="N16">
-        <v>1.006617358233761</v>
+        <v>2.403747579682836</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.750432896823554</v>
+        <v>2.960839348305683</v>
       </c>
       <c r="C17">
-        <v>1.219528897671296</v>
+        <v>0.4344036639220121</v>
       </c>
       <c r="D17">
-        <v>0.02272790766410182</v>
+        <v>0.01811608762022132</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.701936898552574</v>
+        <v>3.582015373317347</v>
       </c>
       <c r="G17">
-        <v>0.0007995069140922916</v>
+        <v>0.002581968803646584</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.344104237383817</v>
+        <v>2.065862623053903</v>
       </c>
       <c r="J17">
-        <v>0.06168406221232914</v>
+        <v>0.1167265723929791</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2756017607848094</v>
+        <v>0.405514463443609</v>
       </c>
       <c r="M17">
-        <v>0.7950148902706573</v>
+        <v>0.6188955990220038</v>
       </c>
       <c r="N17">
-        <v>1.029539104570063</v>
+        <v>2.412900972013752</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.63022744071111</v>
+        <v>2.93377936782241</v>
       </c>
       <c r="C18">
-        <v>1.186378920700008</v>
+        <v>0.4262831159224447</v>
       </c>
       <c r="D18">
-        <v>0.02201017658289928</v>
+        <v>0.01791906375777685</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.658689048653287</v>
+        <v>3.576883381334284</v>
       </c>
       <c r="G18">
-        <v>0.0008016073345669115</v>
+        <v>0.002583185823876456</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.32766831151018</v>
+        <v>2.064940753196026</v>
       </c>
       <c r="J18">
-        <v>0.06150224694888706</v>
+        <v>0.1166680457527995</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2707113606092122</v>
+        <v>0.4047982498031075</v>
       </c>
       <c r="M18">
-        <v>0.7758422117529236</v>
+        <v>0.6148306917110986</v>
       </c>
       <c r="N18">
-        <v>1.042953199907856</v>
+        <v>2.418242043641079</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.589669902078811</v>
+        <v>2.92464235156632</v>
       </c>
       <c r="C19">
-        <v>1.175197332338939</v>
+        <v>0.4235369654831516</v>
       </c>
       <c r="D19">
-        <v>0.02176934187692581</v>
+        <v>0.01785227098453035</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.644171599970193</v>
+        <v>3.575176623348923</v>
       </c>
       <c r="G19">
-        <v>0.0008023201097601248</v>
+        <v>0.002583600747100682</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.322168815075202</v>
+        <v>2.064645683520183</v>
       </c>
       <c r="J19">
-        <v>0.06144096903273599</v>
+        <v>0.1166482200656933</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2690636319132267</v>
+        <v>0.4045584693398894</v>
       </c>
       <c r="M19">
-        <v>0.7693747613573478</v>
+        <v>0.6134594915486034</v>
       </c>
       <c r="N19">
-        <v>1.047533672511278</v>
+        <v>2.42006353034752</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.772749115003251</v>
+        <v>2.965859434508616</v>
       </c>
       <c r="C20">
-        <v>1.225684846481784</v>
+        <v>0.4359081793357973</v>
       </c>
       <c r="D20">
-        <v>0.02286180481338462</v>
+        <v>0.01815251288735098</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.710001763525838</v>
+        <v>3.582979848928147</v>
       </c>
       <c r="G20">
-        <v>0.0007991189208362282</v>
+        <v>0.002581744919113487</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.347177745538815</v>
+        <v>2.066041347680525</v>
       </c>
       <c r="J20">
-        <v>0.06171784916115719</v>
+        <v>0.1167373998291588</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2765107647739029</v>
+        <v>0.4056483089045884</v>
       </c>
       <c r="M20">
-        <v>0.7985749994766493</v>
+        <v>0.6196503484345541</v>
       </c>
       <c r="N20">
-        <v>1.027075029664822</v>
+        <v>2.411918680504314</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.398660731604366</v>
+        <v>3.106086217797952</v>
       </c>
       <c r="C21">
-        <v>1.398570073372127</v>
+        <v>0.4777075342971671</v>
       </c>
       <c r="D21">
-        <v>0.02670103409071345</v>
+        <v>0.01915570346662321</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.940563730973423</v>
+        <v>3.611347782609556</v>
       </c>
       <c r="G21">
-        <v>0.0007884647586402858</v>
+        <v>0.002575708036917772</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.436076478121549</v>
+        <v>2.071919704559278</v>
       </c>
       <c r="J21">
-        <v>0.06266978835637893</v>
+        <v>0.117036375767567</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3021343353333918</v>
+        <v>0.4094988906160637</v>
       </c>
       <c r="M21">
-        <v>0.8985070452527992</v>
+        <v>0.6408062466900191</v>
       </c>
       <c r="N21">
-        <v>0.9611509883320082</v>
+        <v>2.385465251905437</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.816930341289151</v>
+        <v>3.199034014098402</v>
       </c>
       <c r="C22">
-        <v>1.514370259922657</v>
+        <v>0.5052027777725243</v>
       </c>
       <c r="D22">
-        <v>0.02935807325980022</v>
+        <v>0.0198074870902829</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.09906332897657</v>
+        <v>3.631495586680131</v>
       </c>
       <c r="G22">
-        <v>0.0007815639250751432</v>
+        <v>0.002571909788869506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.498214382704603</v>
+        <v>2.076650630566178</v>
       </c>
       <c r="J22">
-        <v>0.06331074384635293</v>
+        <v>0.1172312970790816</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3193806346216661</v>
+        <v>0.4121560653329936</v>
       </c>
       <c r="M22">
-        <v>0.9653638651114846</v>
+        <v>0.6548979839571771</v>
       </c>
       <c r="N22">
-        <v>0.9203188520844421</v>
+        <v>2.36885795622495</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.592771050821057</v>
+        <v>3.149306781840892</v>
       </c>
       <c r="C23">
-        <v>1.452282108673444</v>
+        <v>0.4905116822928903</v>
       </c>
       <c r="D23">
-        <v>0.02792490174295637</v>
+        <v>0.01945995166841996</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.013697965607776</v>
+        <v>3.6205948826005</v>
       </c>
       <c r="G23">
-        <v>0.0007852422379819313</v>
+        <v>0.002573923561355838</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.464653027643237</v>
+        <v>2.074044113008611</v>
       </c>
       <c r="J23">
-        <v>0.06296674822880632</v>
+        <v>0.1171273067414429</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3101267512580534</v>
+        <v>0.4107250272152498</v>
       </c>
       <c r="M23">
-        <v>0.9295269720450037</v>
+        <v>0.6473526850293112</v>
       </c>
       <c r="N23">
-        <v>0.9418949330592454</v>
+        <v>2.377659109650246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.762657452368671</v>
+        <v>2.963589437754592</v>
       </c>
       <c r="C24">
-        <v>1.222900987837534</v>
+        <v>0.4352279387973681</v>
       </c>
       <c r="D24">
-        <v>0.02280122965566633</v>
+        <v>0.01813604679525227</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.706353355119944</v>
+        <v>3.582543257075912</v>
       </c>
       <c r="G24">
-        <v>0.0007992943014675229</v>
+        <v>0.002581846083764953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.345787015882735</v>
+        <v>2.065960238055425</v>
       </c>
       <c r="J24">
-        <v>0.06170256901666171</v>
+        <v>0.1167325050004315</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2760996602953867</v>
+        <v>0.4055877491418158</v>
       </c>
       <c r="M24">
-        <v>0.7969650489113747</v>
+        <v>0.619309039347506</v>
       </c>
       <c r="N24">
-        <v>1.028188304761962</v>
+        <v>2.412362529476255</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.899557402907305</v>
+        <v>2.768835058707452</v>
       </c>
       <c r="C25">
-        <v>0.9851571620888251</v>
+        <v>0.3763374326318853</v>
       </c>
       <c r="D25">
-        <v>0.01777296188906874</v>
+        <v>0.01668948630736011</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.403281090969912</v>
+        <v>3.548367399620915</v>
       </c>
       <c r="G25">
-        <v>0.0008148017619822425</v>
+        <v>0.002591028388196186</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.232384582262441</v>
+        <v>2.06103939850945</v>
       </c>
       <c r="J25">
-        <v>0.06040331604944704</v>
+        <v>0.1163045216583374</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2412250070109536</v>
+        <v>0.4006510933892997</v>
       </c>
       <c r="M25">
-        <v>0.6594522280203989</v>
+        <v>0.5901963810665265</v>
       </c>
       <c r="N25">
-        <v>1.129978688438833</v>
+        <v>2.452711027518674</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630176381257741</v>
+        <v>3.284839022996493</v>
       </c>
       <c r="C2">
-        <v>0.3335846736778763</v>
+        <v>0.8161312726943777</v>
       </c>
       <c r="D2">
-        <v>0.01560609928320034</v>
+        <v>0.01437149562831408</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.529065049541259</v>
+        <v>2.199675324920577</v>
       </c>
       <c r="G2">
-        <v>0.002598343087747254</v>
+        <v>0.0008266025197003168</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.060660554140718</v>
+        <v>1.159200952960973</v>
       </c>
       <c r="J2">
-        <v>0.1159874134268719</v>
+        <v>0.05948671240491343</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.397536397468464</v>
+        <v>0.2168099828594805</v>
       </c>
       <c r="M2">
-        <v>0.5697315880403409</v>
+        <v>0.5617812666197324</v>
       </c>
       <c r="N2">
-        <v>2.484920273678362</v>
+        <v>1.211515160780188</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.539138205202164</v>
+        <v>2.878204592806526</v>
       </c>
       <c r="C3">
-        <v>0.3049758128916551</v>
+        <v>0.7043607774416216</v>
       </c>
       <c r="D3">
-        <v>0.01485929724968571</v>
+        <v>0.01220087878336074</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.519617957760076</v>
+        <v>2.071779361542838</v>
       </c>
       <c r="G3">
-        <v>0.002603648974876902</v>
+        <v>0.0008348739582364879</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.062416726719675</v>
+        <v>1.115001261546091</v>
       </c>
       <c r="J3">
-        <v>0.115771194462079</v>
+        <v>0.05888419952891688</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3957501985477094</v>
+        <v>0.2009184878948744</v>
       </c>
       <c r="M3">
-        <v>0.5564649643287751</v>
+        <v>0.4973376214835383</v>
       </c>
       <c r="N3">
-        <v>2.508305539574735</v>
+        <v>1.27050024054828</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.484680832143567</v>
+        <v>2.632575078658817</v>
       </c>
       <c r="C4">
-        <v>0.2875857144509268</v>
+        <v>0.6368214830304169</v>
       </c>
       <c r="D4">
-        <v>0.01439417328979076</v>
+        <v>0.01091938912511026</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.51560350650837</v>
+        <v>1.997615269474537</v>
       </c>
       <c r="G4">
-        <v>0.002607079826359898</v>
+        <v>0.0008400981287709985</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.064484588275803</v>
+        <v>1.090222957369534</v>
       </c>
       <c r="J4">
-        <v>0.1156377673379527</v>
+        <v>0.0585216953504677</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3948137588373868</v>
+        <v>0.1914452358275938</v>
       </c>
       <c r="M4">
-        <v>0.548615748157161</v>
+        <v>0.4584909730047571</v>
       </c>
       <c r="N4">
-        <v>2.523430902619801</v>
+        <v>1.308444155376343</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.462850947583945</v>
+        <v>2.53337941614592</v>
       </c>
       <c r="C5">
-        <v>0.280542859447678</v>
+        <v>0.6095342734072631</v>
       </c>
       <c r="D5">
-        <v>0.01420292241167687</v>
+        <v>0.01040804228492931</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.514415952232113</v>
+        <v>1.968407347867611</v>
       </c>
       <c r="G5">
-        <v>0.002608521577942948</v>
+        <v>0.0008422650030246952</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.065575679718435</v>
+        <v>1.080678183790106</v>
       </c>
       <c r="J5">
-        <v>0.1155832247357793</v>
+        <v>0.05837560899566263</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3944725066374275</v>
+        <v>0.1876510428083549</v>
       </c>
       <c r="M5">
-        <v>0.5454916930575635</v>
+        <v>0.4428232892472792</v>
       </c>
       <c r="N5">
-        <v>2.529787189233481</v>
+        <v>1.324325471574291</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.459247964681936</v>
+        <v>2.516959184139637</v>
       </c>
       <c r="C6">
-        <v>0.279376027622277</v>
+        <v>0.6050164279099022</v>
       </c>
       <c r="D6">
-        <v>0.014171060567989</v>
+        <v>0.01032373438031442</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.514245818031242</v>
+        <v>1.963616366161858</v>
       </c>
       <c r="G6">
-        <v>0.002608763620582774</v>
+        <v>0.0008426271440443619</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.065771846706973</v>
+        <v>1.079125517691608</v>
       </c>
       <c r="J6">
-        <v>0.1155741576545708</v>
+        <v>0.05835144392222347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3944182807143264</v>
+        <v>0.1870248750019599</v>
       </c>
       <c r="M6">
-        <v>0.5449774495694371</v>
+        <v>0.4402309801014539</v>
       </c>
       <c r="N6">
-        <v>2.530854270732121</v>
+        <v>1.326987424202578</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.484384961573994</v>
+        <v>2.631233793726437</v>
       </c>
       <c r="C7">
-        <v>0.2874905555109422</v>
+        <v>0.6364525723195698</v>
       </c>
       <c r="D7">
-        <v>0.01439160100324699</v>
+        <v>0.01091245145007491</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.515585676341814</v>
+        <v>1.997217358358412</v>
       </c>
       <c r="G7">
-        <v>0.002607099093158038</v>
+        <v>0.0008401271963874162</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.064498297829644</v>
+        <v>1.090092047678596</v>
       </c>
       <c r="J7">
-        <v>0.1156370324475873</v>
+        <v>0.05851971884348117</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3948089931323935</v>
+        <v>0.1913938044545134</v>
       </c>
       <c r="M7">
-        <v>0.5485733141546802</v>
+        <v>0.4582790385524689</v>
       </c>
       <c r="N7">
-        <v>2.523515846288994</v>
+        <v>1.30865665980582</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.598487250038602</v>
+        <v>3.143718365685743</v>
       </c>
       <c r="C8">
-        <v>0.3236835460194811</v>
+        <v>0.7773430349242005</v>
       </c>
       <c r="D8">
-        <v>0.01534993622320968</v>
+        <v>0.01361114651079376</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.525436512545738</v>
+        <v>2.154618919612332</v>
       </c>
       <c r="G8">
-        <v>0.002600136736434681</v>
+        <v>0.0008294251951590296</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.061060443515913</v>
+        <v>1.14344529173259</v>
       </c>
       <c r="J8">
-        <v>0.1159129984274667</v>
+        <v>0.05927727317729037</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3968872737748228</v>
+        <v>0.2112683330983671</v>
       </c>
       <c r="M8">
-        <v>0.5650956989636953</v>
+        <v>0.5393993728395259</v>
       </c>
       <c r="N8">
-        <v>2.492824251720265</v>
+        <v>1.231485181799691</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.833699053569944</v>
+        <v>4.186633665969396</v>
       </c>
       <c r="C9">
-        <v>0.3960784024749842</v>
+        <v>1.064164174848486</v>
       </c>
       <c r="D9">
-        <v>0.01717944709796981</v>
+        <v>0.01941223462261021</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.558966121785701</v>
+        <v>2.502031608434891</v>
       </c>
       <c r="G9">
-        <v>0.002587849706623624</v>
+        <v>0.0008095236636902122</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.06219152866737</v>
+        <v>1.268832454168958</v>
       </c>
       <c r="J9">
-        <v>0.1164489870159855</v>
+        <v>0.06083382600522746</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4022332314723229</v>
+        <v>0.2527572115572809</v>
       </c>
       <c r="M9">
-        <v>0.5998518065938825</v>
+        <v>0.7051478249599015</v>
       </c>
       <c r="N9">
-        <v>2.438730654386987</v>
+        <v>1.094611435625055</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.013556516148583</v>
+        <v>4.985062776702364</v>
       </c>
       <c r="C10">
-        <v>0.4501734633243473</v>
+        <v>1.284278458813333</v>
       </c>
       <c r="D10">
-        <v>0.01849673190222134</v>
+        <v>0.02414591322026638</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.592328609776217</v>
+        <v>2.787278996862739</v>
       </c>
       <c r="G10">
-        <v>0.002579645918456386</v>
+        <v>0.000795456910975619</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.067854345300049</v>
+        <v>1.376757947856461</v>
       </c>
       <c r="J10">
-        <v>0.1168398234481014</v>
+        <v>0.06203981450397045</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4069345382729068</v>
+        <v>0.2851754123161498</v>
       </c>
       <c r="M10">
-        <v>0.6268309412372517</v>
+        <v>0.8324557654954106</v>
       </c>
       <c r="N10">
-        <v>2.402713458065953</v>
+        <v>1.004033659920601</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.096923911820511</v>
+        <v>5.357591512728163</v>
       </c>
       <c r="C11">
-        <v>0.4749887377130335</v>
+        <v>1.387211974015145</v>
       </c>
       <c r="D11">
-        <v>0.01909092931523304</v>
+        <v>0.02644412416192665</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.609415983001043</v>
+        <v>2.92518609562967</v>
       </c>
       <c r="G11">
-        <v>0.002576090624629944</v>
+        <v>0.0007891512147096465</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.071487034434725</v>
+        <v>1.430089488960633</v>
       </c>
       <c r="J11">
-        <v>0.1170170305839093</v>
+        <v>0.06260706644772362</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4092411801863562</v>
+        <v>0.3004459403294106</v>
       </c>
       <c r="M11">
-        <v>0.6394199250781298</v>
+        <v>0.8919455727182424</v>
       </c>
       <c r="N11">
-        <v>2.387139709201357</v>
+        <v>0.9652948483548442</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.128716582387824</v>
+        <v>5.500217685353164</v>
       </c>
       <c r="C12">
-        <v>0.484416058560555</v>
+        <v>1.426665763897802</v>
       </c>
       <c r="D12">
-        <v>0.01931527214817308</v>
+        <v>0.02733937064547476</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.616162343462548</v>
+        <v>2.978734356902436</v>
       </c>
       <c r="G12">
-        <v>0.002574769577126681</v>
+        <v>0.0007867743064960298</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.073015143576853</v>
+        <v>1.450970365228486</v>
       </c>
       <c r="J12">
-        <v>0.1170840530942545</v>
+        <v>0.0628250498282501</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4101387791174176</v>
+        <v>0.306313396613092</v>
       </c>
       <c r="M12">
-        <v>0.6442325837424079</v>
+        <v>0.9147348680452438</v>
       </c>
       <c r="N12">
-        <v>2.381359169873853</v>
+        <v>0.951009036027763</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.121859525402101</v>
+        <v>5.469427557937877</v>
       </c>
       <c r="C13">
-        <v>0.4823843596180382</v>
+        <v>1.41814630585435</v>
       </c>
       <c r="D13">
-        <v>0.01926698463035237</v>
+        <v>0.02714538069550088</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.614697114148925</v>
+        <v>2.967140149459311</v>
       </c>
       <c r="G13">
-        <v>0.002575052966723906</v>
+        <v>0.0007872857735272848</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.072679247182862</v>
+        <v>1.446441495569005</v>
       </c>
       <c r="J13">
-        <v>0.1170696222063619</v>
+        <v>0.06277795316380264</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4099443927369464</v>
+        <v>0.3050457966987778</v>
       </c>
       <c r="M13">
-        <v>0.6431940680388948</v>
+        <v>0.9098145374928563</v>
       </c>
       <c r="N13">
-        <v>2.382598907882951</v>
+        <v>0.954068169730931</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.099535037048781</v>
+        <v>5.369292894678495</v>
       </c>
       <c r="C14">
-        <v>0.4757637184750934</v>
+        <v>1.390447893141641</v>
       </c>
       <c r="D14">
-        <v>0.019109399163586</v>
+        <v>0.02651725048282572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.60996547804092</v>
+        <v>2.929564019001504</v>
       </c>
       <c r="G14">
-        <v>0.002575981435334236</v>
+        <v>0.0007889554614947672</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.071609693643069</v>
+        <v>1.43179316436391</v>
       </c>
       <c r="J14">
-        <v>0.117022546196166</v>
+        <v>0.06262493327596452</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4093145429024219</v>
+        <v>0.3009269001913708</v>
       </c>
       <c r="M14">
-        <v>0.6398149536094024</v>
+        <v>0.893814998800643</v>
       </c>
       <c r="N14">
-        <v>2.386661795957856</v>
+        <v>0.9641116748692795</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.085889730689587</v>
+        <v>5.308167283953537</v>
       </c>
       <c r="C15">
-        <v>0.4717123482544139</v>
+        <v>1.373545985698399</v>
       </c>
       <c r="D15">
-        <v>0.01901278841098986</v>
+        <v>0.02613588656939925</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.607103154185893</v>
+        <v>2.906725124093242</v>
       </c>
       <c r="G15">
-        <v>0.00257655343569088</v>
+        <v>0.0007899795367751714</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.070974436054527</v>
+        <v>1.422912320518549</v>
       </c>
       <c r="J15">
-        <v>0.1169937001733299</v>
+        <v>0.06253163399663464</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.408931882340724</v>
+        <v>0.2984153096609248</v>
       </c>
       <c r="M15">
-        <v>0.6377510729695999</v>
+        <v>0.8840500266176434</v>
       </c>
       <c r="N15">
-        <v>2.389165666150049</v>
+        <v>0.9703145150154953</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.008139475550593</v>
+        <v>4.960922673490757</v>
       </c>
       <c r="C16">
-        <v>0.4485559401253454</v>
+        <v>1.277613862747273</v>
       </c>
       <c r="D16">
-        <v>0.01845780320685009</v>
+        <v>0.02399897457000577</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.591250441119712</v>
+        <v>2.778443144829197</v>
       </c>
       <c r="G16">
-        <v>0.002579881808233395</v>
+        <v>0.0007958706742643741</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.067638249230569</v>
+        <v>1.373364150596657</v>
       </c>
       <c r="J16">
-        <v>0.116828230944229</v>
+        <v>0.06200315915876509</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4067871713535851</v>
+        <v>0.2841887719167033</v>
       </c>
       <c r="M16">
-        <v>0.6260145841663345</v>
+        <v>0.8286025968699278</v>
       </c>
       <c r="N16">
-        <v>2.403747579682836</v>
+        <v>1.006617358233811</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.960839348305683</v>
+        <v>4.750432896823327</v>
       </c>
       <c r="C17">
-        <v>0.4344036639220121</v>
+        <v>1.219528897670898</v>
       </c>
       <c r="D17">
-        <v>0.01811608762022132</v>
+        <v>0.02272790766398458</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.582015373317347</v>
+        <v>2.701936898552574</v>
       </c>
       <c r="G17">
-        <v>0.002581968803646584</v>
+        <v>0.0007995069140335209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.065862623053903</v>
+        <v>1.344104237383789</v>
       </c>
       <c r="J17">
-        <v>0.1167265723929791</v>
+        <v>0.06168406221237532</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.405514463443609</v>
+        <v>0.275601760784923</v>
       </c>
       <c r="M17">
-        <v>0.6188955990220038</v>
+        <v>0.7950148902706573</v>
       </c>
       <c r="N17">
-        <v>2.412900972013752</v>
+        <v>1.029539104570048</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.93377936782241</v>
+        <v>4.630227440711053</v>
       </c>
       <c r="C18">
-        <v>0.4262831159224447</v>
+        <v>1.186378920699724</v>
       </c>
       <c r="D18">
-        <v>0.01791906375777685</v>
+        <v>0.02201017658287441</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.576883381334284</v>
+        <v>2.658689048653244</v>
       </c>
       <c r="G18">
-        <v>0.002583185823876456</v>
+        <v>0.0008016073345627287</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.064940753196026</v>
+        <v>1.327668311510166</v>
       </c>
       <c r="J18">
-        <v>0.1166680457527995</v>
+        <v>0.06150224694889062</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4047982498031075</v>
+        <v>0.2707113606092406</v>
       </c>
       <c r="M18">
-        <v>0.6148306917110986</v>
+        <v>0.7758422117529236</v>
       </c>
       <c r="N18">
-        <v>2.418242043641079</v>
+        <v>1.042953199907807</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.92464235156632</v>
+        <v>4.589669902078924</v>
       </c>
       <c r="C19">
-        <v>0.4235369654831516</v>
+        <v>1.175197332339053</v>
       </c>
       <c r="D19">
-        <v>0.01785227098453035</v>
+        <v>0.02176934187702173</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.575176623348923</v>
+        <v>2.644171599970193</v>
       </c>
       <c r="G19">
-        <v>0.002583600747100682</v>
+        <v>0.0008023201098152157</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.064645683520183</v>
+        <v>1.322168815075187</v>
       </c>
       <c r="J19">
-        <v>0.1166482200656933</v>
+        <v>0.06144096903269869</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4045584693398894</v>
+        <v>0.2690636319132551</v>
       </c>
       <c r="M19">
-        <v>0.6134594915486034</v>
+        <v>0.7693747613573549</v>
       </c>
       <c r="N19">
-        <v>2.42006353034752</v>
+        <v>1.047533672511221</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.965859434508616</v>
+        <v>4.772749115003194</v>
       </c>
       <c r="C20">
-        <v>0.4359081793357973</v>
+        <v>1.225684846482068</v>
       </c>
       <c r="D20">
-        <v>0.01815251288735098</v>
+        <v>0.022861804813612</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.582979848928147</v>
+        <v>2.710001763525838</v>
       </c>
       <c r="G20">
-        <v>0.002581744919113487</v>
+        <v>0.0007991189208937655</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.066041347680525</v>
+        <v>1.347177745538815</v>
       </c>
       <c r="J20">
-        <v>0.1167373998291588</v>
+        <v>0.0617178491613295</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4056483089045884</v>
+        <v>0.2765107647738176</v>
       </c>
       <c r="M20">
-        <v>0.6196503484345541</v>
+        <v>0.7985749994766635</v>
       </c>
       <c r="N20">
-        <v>2.411918680504314</v>
+        <v>1.027075029664815</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.106086217797952</v>
+        <v>5.39866073160448</v>
       </c>
       <c r="C21">
-        <v>0.4777075342971671</v>
+        <v>1.398570073372866</v>
       </c>
       <c r="D21">
-        <v>0.01915570346662321</v>
+        <v>0.02670103409080937</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.611347782609556</v>
+        <v>2.940563730973423</v>
       </c>
       <c r="G21">
-        <v>0.002575708036917772</v>
+        <v>0.0007884647585805538</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.071919704559278</v>
+        <v>1.436076478121535</v>
       </c>
       <c r="J21">
-        <v>0.117036375767567</v>
+        <v>0.06266978835641623</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4094988906160637</v>
+        <v>0.3021343353333776</v>
       </c>
       <c r="M21">
-        <v>0.6408062466900191</v>
+        <v>0.8985070452528063</v>
       </c>
       <c r="N21">
-        <v>2.385465251905437</v>
+        <v>0.9611509883320508</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.199034014098402</v>
+        <v>5.816930341289094</v>
       </c>
       <c r="C22">
-        <v>0.5052027777725243</v>
+        <v>1.514370259922771</v>
       </c>
       <c r="D22">
-        <v>0.0198074870902829</v>
+        <v>0.02935807325981443</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.631495586680131</v>
+        <v>3.09906332897657</v>
       </c>
       <c r="G22">
-        <v>0.002571909788869506</v>
+        <v>0.0007815639250064396</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.076650630566178</v>
+        <v>1.498214382704589</v>
       </c>
       <c r="J22">
-        <v>0.1172312970790816</v>
+        <v>0.06331074384642754</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4121560653329936</v>
+        <v>0.3193806346217087</v>
       </c>
       <c r="M22">
-        <v>0.6548979839571771</v>
+        <v>0.9653638651114633</v>
       </c>
       <c r="N22">
-        <v>2.36885795622495</v>
+        <v>0.9203188520845345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.149306781840892</v>
+        <v>5.592771050821057</v>
       </c>
       <c r="C23">
-        <v>0.4905116822928903</v>
+        <v>1.452282108673216</v>
       </c>
       <c r="D23">
-        <v>0.01945995166841996</v>
+        <v>0.0279249017430736</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.6205948826005</v>
+        <v>3.013697965607804</v>
       </c>
       <c r="G23">
-        <v>0.002573923561355838</v>
+        <v>0.0007852422379806548</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.074044113008611</v>
+        <v>1.464653027643251</v>
       </c>
       <c r="J23">
-        <v>0.1171273067414429</v>
+        <v>0.06296674822879567</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4107250272152498</v>
+        <v>0.3101267512581671</v>
       </c>
       <c r="M23">
-        <v>0.6473526850293112</v>
+        <v>0.9295269720450037</v>
       </c>
       <c r="N23">
-        <v>2.377659109650246</v>
+        <v>0.9418949330592881</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.963589437754592</v>
+        <v>4.762657452368899</v>
       </c>
       <c r="C24">
-        <v>0.4352279387973681</v>
+        <v>1.222900987837704</v>
       </c>
       <c r="D24">
-        <v>0.01813604679525227</v>
+        <v>0.02280122965566278</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.582543257075912</v>
+        <v>2.706353355119973</v>
       </c>
       <c r="G24">
-        <v>0.002581846083764953</v>
+        <v>0.0007992943016426064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.065960238055425</v>
+        <v>1.345787015882735</v>
       </c>
       <c r="J24">
-        <v>0.1167325050004315</v>
+        <v>0.06170256901666704</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4055877491418158</v>
+        <v>0.2760996602952872</v>
       </c>
       <c r="M24">
-        <v>0.619309039347506</v>
+        <v>0.796965048911396</v>
       </c>
       <c r="N24">
-        <v>2.412362529476255</v>
+        <v>1.028188304762033</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.768835058707452</v>
+        <v>3.899557402907362</v>
       </c>
       <c r="C25">
-        <v>0.3763374326318853</v>
+        <v>0.9851571620886546</v>
       </c>
       <c r="D25">
-        <v>0.01668948630736011</v>
+        <v>0.01777296188905808</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.548367399620915</v>
+        <v>2.403281090969898</v>
       </c>
       <c r="G25">
-        <v>0.002591028388196186</v>
+        <v>0.0008148017619263337</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.06103939850945</v>
+        <v>1.232384582262426</v>
       </c>
       <c r="J25">
-        <v>0.1163045216583374</v>
+        <v>0.06040331604943461</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4006510933892997</v>
+        <v>0.2412250070109252</v>
       </c>
       <c r="M25">
-        <v>0.5901963810665265</v>
+        <v>0.659452228020406</v>
       </c>
       <c r="N25">
-        <v>2.452711027518674</v>
+        <v>1.129978688438868</v>
       </c>
       <c r="O25">
         <v>0</v>
